--- a/Data/DM/11226680268ADJ DM.xlsx
+++ b/Data/DM/11226680268ADJ DM.xlsx
@@ -106,25 +106,25 @@
     <x:t>Quantity Variance</x:t>
   </x:si>
   <x:si>
+    <x:t>-112</x:t>
+  </x:si>
+  <x:si>
+    <x:t>28</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> </x:t>
+  </x:si>
+  <x:si>
+    <x:t>12</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8</x:t>
+  </x:si>
+  <x:si>
+    <x:t>910-006232</x:t>
+  </x:si>
+  <x:si>
     <x:t>24516907</x:t>
-  </x:si>
-  <x:si>
-    <x:t>910-006232</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve"> </x:t>
-  </x:si>
-  <x:si>
-    <x:t>8</x:t>
-  </x:si>
-  <x:si>
-    <x:t>12</x:t>
-  </x:si>
-  <x:si>
-    <x:t>28</x:t>
-  </x:si>
-  <x:si>
-    <x:t>-112</x:t>
   </x:si>
   <x:si>
     <x:t>2805677</x:t>
@@ -602,28 +602,28 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="I2" s="0" t="s">
-        <x:v>30</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="J2" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="K2" s="0" t="s">
         <x:v>32</x:v>
       </x:c>
       <x:c r="L2" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="M2" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="N2" s="0" t="s">
-        <x:v>35</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="O2" s="0" t="s">
-        <x:v>35</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="P2" s="0" t="s">
-        <x:v>36</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="Q2" s="0" t="s">
         <x:v>27</x:v>
@@ -670,28 +670,28 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="I3" s="0" t="s">
-        <x:v>40</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="J3" s="0" t="s">
-        <x:v>41</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="K3" s="0" t="s">
         <x:v>32</x:v>
       </x:c>
       <x:c r="L3" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="M3" s="0" t="s">
-        <x:v>43</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="N3" s="0" t="s">
-        <x:v>44</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="O3" s="0" t="s">
-        <x:v>44</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="P3" s="0" t="s">
-        <x:v>45</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="Q3" s="0" t="s">
         <x:v>27</x:v>
